--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korea_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDEAF48-3F35-436E-94D7-B394E4CDA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAF2FD-33B3-4291-BDAC-53C35A20E645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{E21BE7BC-9F49-4A66-A3AF-80FDDEF25D70}"/>
+    <workbookView xWindow="4800" yWindow="1260" windowWidth="14400" windowHeight="7360" xr2:uid="{E21BE7BC-9F49-4A66-A3AF-80FDDEF25D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,38 @@
   </si>
   <si>
     <t>대표이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,10 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1C49DD-385B-42CA-A822-129D335075A1}">
-  <dimension ref="B3:P35"/>
+  <dimension ref="B3:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -805,23 +840,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
@@ -843,7 +878,7 @@
       <c r="O4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -884,7 +919,7 @@
       <c r="O5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1086,11 +1121,11 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="7">
         <v>8</v>
       </c>
@@ -1326,11 +1361,11 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
       <c r="F21" s="7">
         <v>16</v>
       </c>
@@ -1390,16 +1425,17 @@
       <c r="D25" s="2">
         <v>36</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="J25" s="16" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="2"/>
+      <c r="M25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="2">
@@ -1414,9 +1450,10 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="2"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="2">
@@ -1437,13 +1474,16 @@
       <c r="H27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="N27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1457,22 +1497,23 @@
       <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>4</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="I28" s="2"/>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4</v>
+      </c>
+      <c r="O28" s="2">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="F29" s="2">
         <v>2</v>
       </c>
@@ -1482,13 +1523,14 @@
       <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>4</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="I29" s="2"/>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1505,13 +1547,14 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="2">
-        <v>3</v>
-      </c>
-      <c r="K30" s="2">
-        <v>4</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="I30" s="2"/>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2">
         <v>38</v>
       </c>
     </row>
@@ -1534,13 +1577,14 @@
       <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="J31" s="2">
-        <v>4</v>
-      </c>
-      <c r="K31" s="2">
-        <v>4</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="I31" s="2"/>
+      <c r="M31" s="2">
+        <v>4</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4</v>
+      </c>
+      <c r="O31" s="2">
         <v>32</v>
       </c>
     </row>
@@ -1555,7 +1599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="2">
         <v>2</v>
       </c>
@@ -1566,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
         <v>3</v>
       </c>
@@ -1576,8 +1620,35 @@
       <c r="D34" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="F34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="2">
         <v>4</v>
       </c>
@@ -1587,12 +1658,87 @@
       <c r="D35" s="2">
         <v>32</v>
       </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:O3"/>

--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\korea_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAF2FD-33B3-4291-BDAC-53C35A20E645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCFA3FD-FEC7-4475-913D-B686733C7025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1260" windowWidth="14400" windowHeight="7360" xr2:uid="{E21BE7BC-9F49-4A66-A3AF-80FDDEF25D70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E21BE7BC-9F49-4A66-A3AF-80FDDEF25D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,170 @@
   </si>
   <si>
     <t>reqdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문(6하 원칙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받을사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액? 물건가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recevie_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 요약(order_summary)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보(receiver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세(order_detail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매시점의 가격price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +676,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,21 +1010,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1C49DD-385B-42CA-A822-129D335075A1}">
-  <dimension ref="B3:P41"/>
+  <dimension ref="B3:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="11" width="19.58203125" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="19.08203125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="8.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.45">
@@ -1425,11 +1621,11 @@
       <c r="D25" s="2">
         <v>36</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="2"/>
       <c r="M25" s="18" t="s">
         <v>49</v>
@@ -1609,6 +1805,17 @@
       <c r="D33" s="2">
         <v>36</v>
       </c>
+      <c r="F33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2">
@@ -1734,8 +1941,349 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F45" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="M45" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="M46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F49" s="2">
+        <v>23</v>
+      </c>
+      <c r="G49" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="25">
+        <v>44204</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F50" s="2">
+        <v>24</v>
+      </c>
+      <c r="G50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="M50" s="2">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F58" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+      <c r="L58" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="24"/>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F59" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="22">
+        <v>23</v>
+      </c>
+      <c r="N60" s="2">
+        <v>5</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="L61" s="2">
+        <v>2</v>
+      </c>
+      <c r="M61" s="22">
+        <v>23</v>
+      </c>
+      <c r="N61" s="2">
+        <v>6</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="L62" s="2">
+        <v>3</v>
+      </c>
+      <c r="M62" s="22">
+        <v>24</v>
+      </c>
+      <c r="N62" s="2">
+        <v>17</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.45">
+      <c r="F64" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F65" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F68" s="2">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F33:N33"/>
+    <mergeCell ref="L58:Q58"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="F45:K45"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="M25:O25"/>
